--- a/src/main/resources/static/excel/lesson.xlsx
+++ b/src/main/resources/static/excel/lesson.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\urbancode\Desktop\practice\test-master\src\main\resources\static\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\OneDrive\문서\practice_backend\src\main\resources\static\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB066AC-C6FB-449F-B1B1-C712CB194AEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC947EA-D6B9-4776-BE8E-40A25F4A5F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3705" yWindow="2460" windowWidth="21600" windowHeight="11385" xr2:uid="{6A62C92F-325D-42C8-8350-071E2C15B90A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6A62C92F-325D-42C8-8350-071E2C15B90A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -487,7 +487,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
